--- a/data/pca/factorExposure/factorExposure_2015-07-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0210273647139079</v>
+        <v>0.01354899628686847</v>
       </c>
       <c r="C2">
-        <v>-0.02613640955698855</v>
+        <v>-0.04662574985028253</v>
       </c>
       <c r="D2">
-        <v>-0.1294527794845726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1393344846051029</v>
+      </c>
+      <c r="E2">
+        <v>0.002998465813748355</v>
+      </c>
+      <c r="F2">
+        <v>-0.01337609074678293</v>
+      </c>
+      <c r="G2">
+        <v>-0.1312525131404901</v>
+      </c>
+      <c r="H2">
+        <v>0.02995693794263507</v>
+      </c>
+      <c r="I2">
+        <v>0.0318073750548569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.00859649083717823</v>
+        <v>-0.01025396279723918</v>
       </c>
       <c r="C3">
-        <v>-0.02522773728400016</v>
+        <v>-0.01417841718925314</v>
       </c>
       <c r="D3">
-        <v>-0.01491918268333794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01306479169508247</v>
+      </c>
+      <c r="E3">
+        <v>-0.01668216846430188</v>
+      </c>
+      <c r="F3">
+        <v>0.01291876976349044</v>
+      </c>
+      <c r="G3">
+        <v>0.0008346266696016842</v>
+      </c>
+      <c r="H3">
+        <v>0.01058016272514099</v>
+      </c>
+      <c r="I3">
+        <v>0.004553047594345685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03555957380669345</v>
+        <v>0.02009582869152139</v>
       </c>
       <c r="C4">
-        <v>-0.07038813958661899</v>
+        <v>-0.09242368920616126</v>
       </c>
       <c r="D4">
-        <v>-0.1390420641976944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1493721034779484</v>
+      </c>
+      <c r="E4">
+        <v>-0.01689405884200123</v>
+      </c>
+      <c r="F4">
+        <v>-0.09211269052867962</v>
+      </c>
+      <c r="G4">
+        <v>-0.01481316044099079</v>
+      </c>
+      <c r="H4">
+        <v>0.04088591312708124</v>
+      </c>
+      <c r="I4">
+        <v>0.01696125177889119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0278827661315399</v>
+        <v>0.02976845906437147</v>
       </c>
       <c r="C6">
-        <v>-0.01547931520455186</v>
+        <v>-0.03056844550605313</v>
       </c>
       <c r="D6">
-        <v>-0.1452852841814879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1282160215272348</v>
+      </c>
+      <c r="E6">
+        <v>0.03847929685966586</v>
+      </c>
+      <c r="F6">
+        <v>-0.04696490867343107</v>
+      </c>
+      <c r="G6">
+        <v>-0.03631963887081245</v>
+      </c>
+      <c r="H6">
+        <v>0.02404269756223307</v>
+      </c>
+      <c r="I6">
+        <v>-0.01919029497153838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.008674250403631172</v>
+        <v>0.01114908459540155</v>
       </c>
       <c r="C7">
-        <v>-0.02455173497389624</v>
+        <v>-0.03443697523126563</v>
       </c>
       <c r="D7">
-        <v>-0.1151402417355286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.1065327782651496</v>
+      </c>
+      <c r="E7">
+        <v>0.049065999883313</v>
+      </c>
+      <c r="F7">
+        <v>-0.007515121891564932</v>
+      </c>
+      <c r="G7">
+        <v>-0.02309009474271034</v>
+      </c>
+      <c r="H7">
+        <v>0.06397243926708382</v>
+      </c>
+      <c r="I7">
+        <v>-0.02991714866482067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.001657464370263944</v>
+        <v>-0.005375608920948892</v>
       </c>
       <c r="C8">
-        <v>-0.02690040832688782</v>
+        <v>-0.03361246875065679</v>
       </c>
       <c r="D8">
-        <v>-0.08281517652350803</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08233242881510112</v>
+      </c>
+      <c r="E8">
+        <v>0.01915771878763127</v>
+      </c>
+      <c r="F8">
+        <v>-0.04089371122160459</v>
+      </c>
+      <c r="G8">
+        <v>-0.06505796564064815</v>
+      </c>
+      <c r="H8">
+        <v>-0.01549312492982529</v>
+      </c>
+      <c r="I8">
+        <v>-0.0264768128481786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03319115286521302</v>
+        <v>0.01723321089818234</v>
       </c>
       <c r="C9">
-        <v>-0.06366182657714127</v>
+        <v>-0.08111428589305915</v>
       </c>
       <c r="D9">
-        <v>-0.1301756987587759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1232938506795042</v>
+      </c>
+      <c r="E9">
+        <v>-0.007953228011150597</v>
+      </c>
+      <c r="F9">
+        <v>-0.05512992571221175</v>
+      </c>
+      <c r="G9">
+        <v>-0.004196735372114718</v>
+      </c>
+      <c r="H9">
+        <v>0.04677021580564523</v>
+      </c>
+      <c r="I9">
+        <v>0.004897918205672018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1589149956321686</v>
+        <v>0.2210576641548603</v>
       </c>
       <c r="C10">
-        <v>0.1735509651255975</v>
+        <v>0.1122090145381046</v>
       </c>
       <c r="D10">
-        <v>-0.01403839416700621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-7.720038109282538e-05</v>
+      </c>
+      <c r="E10">
+        <v>-0.02378368489726721</v>
+      </c>
+      <c r="F10">
+        <v>-0.04006167872849719</v>
+      </c>
+      <c r="G10">
+        <v>0.02115727973599472</v>
+      </c>
+      <c r="H10">
+        <v>-0.0668713047648048</v>
+      </c>
+      <c r="I10">
+        <v>-0.1248066757229245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02169089678844404</v>
+        <v>0.01112326697412583</v>
       </c>
       <c r="C11">
-        <v>-0.04328010063033066</v>
+        <v>-0.0531522331252919</v>
       </c>
       <c r="D11">
-        <v>-0.05328049173696534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04813185343447692</v>
+      </c>
+      <c r="E11">
+        <v>0.01945960972112827</v>
+      </c>
+      <c r="F11">
+        <v>0.01124681950851094</v>
+      </c>
+      <c r="G11">
+        <v>-0.01161039616652018</v>
+      </c>
+      <c r="H11">
+        <v>0.04267062955374567</v>
+      </c>
+      <c r="I11">
+        <v>0.02288410824849125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02346076607200694</v>
+        <v>0.01229388862870999</v>
       </c>
       <c r="C12">
-        <v>-0.04135604798775065</v>
+        <v>-0.04920320058966915</v>
       </c>
       <c r="D12">
-        <v>-0.06602104691722875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05152926333479664</v>
+      </c>
+      <c r="E12">
+        <v>0.01422029117060203</v>
+      </c>
+      <c r="F12">
+        <v>0.01577285739807458</v>
+      </c>
+      <c r="G12">
+        <v>-0.003071579426020756</v>
+      </c>
+      <c r="H12">
+        <v>0.07209339753043373</v>
+      </c>
+      <c r="I12">
+        <v>0.00971337224239551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.00716658929346047</v>
+        <v>0.006823463599044533</v>
       </c>
       <c r="C13">
-        <v>-0.03031198824693018</v>
+        <v>-0.04659469723272912</v>
       </c>
       <c r="D13">
-        <v>-0.1569979602192219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1561651151463571</v>
+      </c>
+      <c r="E13">
+        <v>0.03639904325381714</v>
+      </c>
+      <c r="F13">
+        <v>-0.03329364275589352</v>
+      </c>
+      <c r="G13">
+        <v>-0.04828509787229011</v>
+      </c>
+      <c r="H13">
+        <v>0.05980495592450397</v>
+      </c>
+      <c r="I13">
+        <v>-0.05741904314148905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.002673418466797813</v>
+        <v>0.0006172722294841878</v>
       </c>
       <c r="C14">
-        <v>-0.0213872048166988</v>
+        <v>-0.02794679172622976</v>
       </c>
       <c r="D14">
-        <v>-0.1091776694515774</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1041017275486116</v>
+      </c>
+      <c r="E14">
+        <v>0.02187083719960589</v>
+      </c>
+      <c r="F14">
+        <v>-0.02290790388905124</v>
+      </c>
+      <c r="G14">
+        <v>-0.05885143406852759</v>
+      </c>
+      <c r="H14">
+        <v>0.09704297649343246</v>
+      </c>
+      <c r="I14">
+        <v>-0.02518793734777111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.000622659732757621</v>
+        <v>-0.0008210008725839618</v>
       </c>
       <c r="C15">
-        <v>-0.0100977518763555</v>
+        <v>-0.01857385802441448</v>
       </c>
       <c r="D15">
-        <v>-0.02187253156806106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05060659511805838</v>
+      </c>
+      <c r="E15">
+        <v>0.004148002106691398</v>
+      </c>
+      <c r="F15">
+        <v>-0.0007919593905451452</v>
+      </c>
+      <c r="G15">
+        <v>-0.02356934234734893</v>
+      </c>
+      <c r="H15">
+        <v>0.008189827447555241</v>
+      </c>
+      <c r="I15">
+        <v>0.02126797665760891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02140237609825803</v>
+        <v>0.01210269652284038</v>
       </c>
       <c r="C16">
-        <v>-0.03990147967325536</v>
+        <v>-0.04836292249352415</v>
       </c>
       <c r="D16">
-        <v>-0.06316096401186459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.04883777540792412</v>
+      </c>
+      <c r="E16">
+        <v>0.0194382268755154</v>
+      </c>
+      <c r="F16">
+        <v>0.006704309434549091</v>
+      </c>
+      <c r="G16">
+        <v>-0.004505786884165633</v>
+      </c>
+      <c r="H16">
+        <v>0.05141001057854493</v>
+      </c>
+      <c r="I16">
+        <v>0.02393454392964205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.004506424018964583</v>
+        <v>-2.038993756209834e-05</v>
       </c>
       <c r="C19">
-        <v>-0.02228609545693995</v>
+        <v>-0.01955342238923986</v>
       </c>
       <c r="D19">
-        <v>-0.1351827566282229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0877619520344974</v>
+      </c>
+      <c r="E19">
+        <v>-0.01997452212543533</v>
+      </c>
+      <c r="F19">
+        <v>-0.01210887410599177</v>
+      </c>
+      <c r="G19">
+        <v>-0.03946394010795565</v>
+      </c>
+      <c r="H19">
+        <v>0.06342870250608694</v>
+      </c>
+      <c r="I19">
+        <v>-0.04516780154500882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.00491672341629563</v>
+        <v>0.004954952447652484</v>
       </c>
       <c r="C20">
-        <v>-0.02709324768218657</v>
+        <v>-0.03738488599049705</v>
       </c>
       <c r="D20">
-        <v>-0.09211352536021918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09939251457030786</v>
+      </c>
+      <c r="E20">
+        <v>0.003093446727333484</v>
+      </c>
+      <c r="F20">
+        <v>-0.02695826899184251</v>
+      </c>
+      <c r="G20">
+        <v>-0.01955190050113301</v>
+      </c>
+      <c r="H20">
+        <v>0.0513730552480936</v>
+      </c>
+      <c r="I20">
+        <v>-0.01196850792362488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007498403702900865</v>
+        <v>0.003153225972603727</v>
       </c>
       <c r="C21">
-        <v>-0.03386234249116479</v>
+        <v>-0.04262392183574196</v>
       </c>
       <c r="D21">
-        <v>-0.1727390094226212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1430169533295199</v>
+      </c>
+      <c r="E21">
+        <v>-0.009020564787608255</v>
+      </c>
+      <c r="F21">
+        <v>-0.06906450024232673</v>
+      </c>
+      <c r="G21">
+        <v>-0.07081317198717524</v>
+      </c>
+      <c r="H21">
+        <v>0.1463035549447618</v>
+      </c>
+      <c r="I21">
+        <v>-0.1125707842511496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001151107825108728</v>
+        <v>-0.00728320089534657</v>
       </c>
       <c r="C22">
-        <v>-0.05946232793357141</v>
+        <v>-0.07141164113420848</v>
       </c>
       <c r="D22">
-        <v>-0.1982467519549543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2405528422188453</v>
+      </c>
+      <c r="E22">
+        <v>0.04260517030344779</v>
+      </c>
+      <c r="F22">
+        <v>-0.02952816269708954</v>
+      </c>
+      <c r="G22">
+        <v>-0.1975996023152563</v>
+      </c>
+      <c r="H22">
+        <v>-0.4835589863700954</v>
+      </c>
+      <c r="I22">
+        <v>0.1264642883822866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.0009338218267187984</v>
+        <v>-0.006848623798838722</v>
       </c>
       <c r="C23">
-        <v>-0.05993339988527775</v>
+        <v>-0.07230356845385741</v>
       </c>
       <c r="D23">
-        <v>-0.1978222249708628</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2412157757153514</v>
+      </c>
+      <c r="E23">
+        <v>0.03959435297504543</v>
+      </c>
+      <c r="F23">
+        <v>-0.02873781221962446</v>
+      </c>
+      <c r="G23">
+        <v>-0.1962281902194118</v>
+      </c>
+      <c r="H23">
+        <v>-0.4834265289482351</v>
+      </c>
+      <c r="I23">
+        <v>0.1283711343982792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02732618185309292</v>
+        <v>0.01238250792669545</v>
       </c>
       <c r="C24">
-        <v>-0.05742333874588253</v>
+        <v>-0.06464718588646737</v>
       </c>
       <c r="D24">
-        <v>-0.07277778317588669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05759298398455296</v>
+      </c>
+      <c r="E24">
+        <v>0.02245519261680439</v>
+      </c>
+      <c r="F24">
+        <v>0.003245683761501725</v>
+      </c>
+      <c r="G24">
+        <v>-0.01862578528056538</v>
+      </c>
+      <c r="H24">
+        <v>0.07249013648172069</v>
+      </c>
+      <c r="I24">
+        <v>0.01927280797344875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03092029167143999</v>
+        <v>0.01632802938646375</v>
       </c>
       <c r="C25">
-        <v>-0.04856632665831273</v>
+        <v>-0.06026318644757002</v>
       </c>
       <c r="D25">
-        <v>-0.06670238998432414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05509500379280767</v>
+      </c>
+      <c r="E25">
+        <v>0.00973595692495882</v>
+      </c>
+      <c r="F25">
+        <v>0.007211360454252216</v>
+      </c>
+      <c r="G25">
+        <v>-0.003372135493535141</v>
+      </c>
+      <c r="H25">
+        <v>0.0439540319040034</v>
+      </c>
+      <c r="I25">
+        <v>0.01159662597398411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.005541313778828862</v>
+        <v>0.006845628298407109</v>
       </c>
       <c r="C26">
-        <v>-0.01661505715167565</v>
+        <v>-0.02394086387042721</v>
       </c>
       <c r="D26">
-        <v>-0.08232266714540393</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07223236610198833</v>
+      </c>
+      <c r="E26">
+        <v>0.01811566399376687</v>
+      </c>
+      <c r="F26">
+        <v>-0.02668578296303109</v>
+      </c>
+      <c r="G26">
+        <v>-0.03139877253116158</v>
+      </c>
+      <c r="H26">
+        <v>0.07418758761348512</v>
+      </c>
+      <c r="I26">
+        <v>-0.05005337381714995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2420205050588808</v>
+        <v>0.3152704029451992</v>
       </c>
       <c r="C28">
-        <v>0.2172653517562705</v>
+        <v>0.1254868493499777</v>
       </c>
       <c r="D28">
-        <v>-0.01664102113107446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.008532110239991194</v>
+      </c>
+      <c r="E28">
+        <v>-0.04846634514822629</v>
+      </c>
+      <c r="F28">
+        <v>-0.0407604128641413</v>
+      </c>
+      <c r="G28">
+        <v>-0.00829407708153819</v>
+      </c>
+      <c r="H28">
+        <v>-0.03902632423105636</v>
+      </c>
+      <c r="I28">
+        <v>-0.1350925742766532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001897517871446632</v>
+        <v>-0.0009354093153799377</v>
       </c>
       <c r="C29">
-        <v>-0.02221870712977747</v>
+        <v>-0.02967295586823917</v>
       </c>
       <c r="D29">
-        <v>-0.102506483009107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1013213201891304</v>
+      </c>
+      <c r="E29">
+        <v>0.03330628562412099</v>
+      </c>
+      <c r="F29">
+        <v>-0.0315237286418829</v>
+      </c>
+      <c r="G29">
+        <v>-0.0501559167847889</v>
+      </c>
+      <c r="H29">
+        <v>0.1001234524730834</v>
+      </c>
+      <c r="I29">
+        <v>-0.02067718345763412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02327466196161417</v>
+        <v>0.01826758629821004</v>
       </c>
       <c r="C30">
-        <v>-0.06116861603286777</v>
+        <v>-0.08132236661746153</v>
       </c>
       <c r="D30">
-        <v>-0.1651483869846267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1645518948050113</v>
+      </c>
+      <c r="E30">
+        <v>0.03997970795576765</v>
+      </c>
+      <c r="F30">
+        <v>-0.03359350531357026</v>
+      </c>
+      <c r="G30">
+        <v>-0.04335979457816414</v>
+      </c>
+      <c r="H30">
+        <v>0.02826518543972649</v>
+      </c>
+      <c r="I30">
+        <v>0.06322015088223394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04365938875508252</v>
+        <v>0.01447743256507907</v>
       </c>
       <c r="C31">
-        <v>-0.08317317318060104</v>
+        <v>-0.09000118499008106</v>
       </c>
       <c r="D31">
-        <v>-0.08233128226089396</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04734274912690152</v>
+      </c>
+      <c r="E31">
+        <v>0.005714241122167746</v>
+      </c>
+      <c r="F31">
+        <v>-0.01534500538154742</v>
+      </c>
+      <c r="G31">
+        <v>-0.01867313868149893</v>
+      </c>
+      <c r="H31">
+        <v>0.04688278302874597</v>
+      </c>
+      <c r="I31">
+        <v>-0.06692586380780961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01944627983472704</v>
+        <v>0.01312546545864902</v>
       </c>
       <c r="C32">
-        <v>-0.03613054721947227</v>
+        <v>-0.04194801368172598</v>
       </c>
       <c r="D32">
-        <v>-0.09749645125481757</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1073947103036371</v>
+      </c>
+      <c r="E32">
+        <v>-0.01030318289906968</v>
+      </c>
+      <c r="F32">
+        <v>-0.04244317740343695</v>
+      </c>
+      <c r="G32">
+        <v>-0.03373301386364166</v>
+      </c>
+      <c r="H32">
+        <v>0.03052919593874031</v>
+      </c>
+      <c r="I32">
+        <v>-0.0692086585868284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01664404618453438</v>
+        <v>0.01018572112746386</v>
       </c>
       <c r="C33">
-        <v>-0.0429701412210992</v>
+        <v>-0.0562107037363915</v>
       </c>
       <c r="D33">
-        <v>-0.1523356184376919</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1334139126070709</v>
+      </c>
+      <c r="E33">
+        <v>0.01027353350225829</v>
+      </c>
+      <c r="F33">
+        <v>-0.02644871266039111</v>
+      </c>
+      <c r="G33">
+        <v>-0.03948693517157957</v>
+      </c>
+      <c r="H33">
+        <v>0.05257738088375286</v>
+      </c>
+      <c r="I33">
+        <v>-0.02637600633215401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02672050549356826</v>
+        <v>0.01050551942534735</v>
       </c>
       <c r="C34">
-        <v>-0.05787108400933354</v>
+        <v>-0.06266357275908251</v>
       </c>
       <c r="D34">
-        <v>-0.05223765944745753</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03518276534683874</v>
+      </c>
+      <c r="E34">
+        <v>0.02882293901289008</v>
+      </c>
+      <c r="F34">
+        <v>0.03495133130633499</v>
+      </c>
+      <c r="G34">
+        <v>-0.01250508149654071</v>
+      </c>
+      <c r="H34">
+        <v>0.05463294870040551</v>
+      </c>
+      <c r="I34">
+        <v>-0.004318861496043579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0008518777608002023</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004533043567549988</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01493818287764331</v>
+      </c>
+      <c r="E35">
+        <v>0.002322563342001578</v>
+      </c>
+      <c r="F35">
+        <v>-0.0004727466820969825</v>
+      </c>
+      <c r="G35">
+        <v>-0.00213509047215668</v>
+      </c>
+      <c r="H35">
+        <v>0.008553188837757532</v>
+      </c>
+      <c r="I35">
+        <v>0.005458064827869162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.010770789229148</v>
+        <v>0.01153736574510813</v>
       </c>
       <c r="C36">
-        <v>-0.00459929589438528</v>
+        <v>-0.01848063311056384</v>
       </c>
       <c r="D36">
-        <v>-0.100739769243552</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08423907733507292</v>
+      </c>
+      <c r="E36">
+        <v>0.004955219919112506</v>
+      </c>
+      <c r="F36">
+        <v>-0.03628320245635292</v>
+      </c>
+      <c r="G36">
+        <v>-0.02608515148002699</v>
+      </c>
+      <c r="H36">
+        <v>0.0578328907176371</v>
+      </c>
+      <c r="I36">
+        <v>-0.0300186641710972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.008938326293277562</v>
+        <v>0.01619492104186081</v>
       </c>
       <c r="C38">
-        <v>-0.009693371541633237</v>
+        <v>-0.01635390318430878</v>
       </c>
       <c r="D38">
-        <v>-0.09609801146725454</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08776465929008606</v>
+      </c>
+      <c r="E38">
+        <v>-0.01226271709894099</v>
+      </c>
+      <c r="F38">
+        <v>0.007435225422256252</v>
+      </c>
+      <c r="G38">
+        <v>-0.04350054738079015</v>
+      </c>
+      <c r="H38">
+        <v>0.03841304596325627</v>
+      </c>
+      <c r="I38">
+        <v>-0.0509784573559666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02074431949530407</v>
+        <v>0.009168576062815115</v>
       </c>
       <c r="C39">
-        <v>-0.05791151978632401</v>
+        <v>-0.07480438256351414</v>
       </c>
       <c r="D39">
-        <v>-0.1163581308238545</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.110121125056575</v>
+      </c>
+      <c r="E39">
+        <v>0.04707536878515202</v>
+      </c>
+      <c r="F39">
+        <v>0.004475760274725376</v>
+      </c>
+      <c r="G39">
+        <v>-0.02406617839534137</v>
+      </c>
+      <c r="H39">
+        <v>0.09701924648186182</v>
+      </c>
+      <c r="I39">
+        <v>0.0510087436713361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01857733857809405</v>
+        <v>0.01360392689401862</v>
       </c>
       <c r="C40">
-        <v>-0.02247761245466453</v>
+        <v>-0.03067055797001435</v>
       </c>
       <c r="D40">
-        <v>-0.1260920887689168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1033930965102539</v>
+      </c>
+      <c r="E40">
+        <v>0.04357110337129758</v>
+      </c>
+      <c r="F40">
+        <v>0.01899122489359032</v>
+      </c>
+      <c r="G40">
+        <v>-0.09935115515599779</v>
+      </c>
+      <c r="H40">
+        <v>0.02183878809247335</v>
+      </c>
+      <c r="I40">
+        <v>-0.04858470711886707</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01480009468994022</v>
+        <v>0.01312485651509592</v>
       </c>
       <c r="C41">
-        <v>-0.008234227068974887</v>
+        <v>-0.01758025354902689</v>
       </c>
       <c r="D41">
-        <v>-0.06951175650417644</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.04885512804610768</v>
+      </c>
+      <c r="E41">
+        <v>-0.02607808496138116</v>
+      </c>
+      <c r="F41">
+        <v>-0.01755829423188833</v>
+      </c>
+      <c r="G41">
+        <v>-0.03901781515827436</v>
+      </c>
+      <c r="H41">
+        <v>0.03028241941195506</v>
+      </c>
+      <c r="I41">
+        <v>-0.05694824974817519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008215711768543498</v>
+        <v>0.006216129151779029</v>
       </c>
       <c r="C43">
-        <v>-0.01268939992947358</v>
+        <v>-0.0186398628097635</v>
       </c>
       <c r="D43">
-        <v>-0.08721066989886624</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.06332768661240686</v>
+      </c>
+      <c r="E43">
+        <v>-0.01048065960460221</v>
+      </c>
+      <c r="F43">
+        <v>-0.01732568450405107</v>
+      </c>
+      <c r="G43">
+        <v>-0.04638214282001526</v>
+      </c>
+      <c r="H43">
+        <v>0.06037233024371026</v>
+      </c>
+      <c r="I43">
+        <v>-0.05301575988638844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0132572950971598</v>
+        <v>0.01108003184369139</v>
       </c>
       <c r="C44">
-        <v>-0.03146522910942843</v>
+        <v>-0.04434392019923693</v>
       </c>
       <c r="D44">
-        <v>-0.1094439630844417</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1145824119036072</v>
+      </c>
+      <c r="E44">
+        <v>0.01847223507691288</v>
+      </c>
+      <c r="F44">
+        <v>-0.02269549233578911</v>
+      </c>
+      <c r="G44">
+        <v>-0.02815856128453768</v>
+      </c>
+      <c r="H44">
+        <v>0.03903825030505394</v>
+      </c>
+      <c r="I44">
+        <v>0.05017328915021715</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.009649056630988121</v>
+        <v>1.024155320036801e-05</v>
       </c>
       <c r="C46">
-        <v>-0.03030916350068459</v>
+        <v>-0.03971160968332766</v>
       </c>
       <c r="D46">
-        <v>-0.1032863781281188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08786680928060361</v>
+      </c>
+      <c r="E46">
+        <v>0.01736365792945955</v>
+      </c>
+      <c r="F46">
+        <v>-0.02769446026031634</v>
+      </c>
+      <c r="G46">
+        <v>-0.06065545742920769</v>
+      </c>
+      <c r="H46">
+        <v>0.1116953176779595</v>
+      </c>
+      <c r="I46">
+        <v>-0.03889079313088718</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08242569874092541</v>
+        <v>0.04066811141547327</v>
       </c>
       <c r="C47">
-        <v>-0.1057890586719512</v>
+        <v>-0.121340987850554</v>
       </c>
       <c r="D47">
-        <v>-0.06395153490378441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03054748942054418</v>
+      </c>
+      <c r="E47">
+        <v>-0.01775599531065326</v>
+      </c>
+      <c r="F47">
+        <v>0.01110344021380049</v>
+      </c>
+      <c r="G47">
+        <v>0.03301847454786255</v>
+      </c>
+      <c r="H47">
+        <v>0.0523559067567101</v>
+      </c>
+      <c r="I47">
+        <v>-0.1252489845325669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.0061383237939979</v>
+        <v>0.006944986916812652</v>
       </c>
       <c r="C48">
-        <v>-0.01700405305332507</v>
+        <v>-0.02679556021174211</v>
       </c>
       <c r="D48">
-        <v>-0.0967093386106551</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08596083499517357</v>
+      </c>
+      <c r="E48">
+        <v>-0.0104003120280043</v>
+      </c>
+      <c r="F48">
+        <v>-0.03984855144075909</v>
+      </c>
+      <c r="G48">
+        <v>-0.03980655135255647</v>
+      </c>
+      <c r="H48">
+        <v>0.07852309532494493</v>
+      </c>
+      <c r="I48">
+        <v>-0.02622473460910591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04203256023950055</v>
+        <v>0.01677857689911534</v>
       </c>
       <c r="C50">
-        <v>-0.06180069206069288</v>
+        <v>-0.07450429599562657</v>
       </c>
       <c r="D50">
-        <v>-0.07752164498856336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05196878691356158</v>
+      </c>
+      <c r="E50">
+        <v>-0.001340730062176246</v>
+      </c>
+      <c r="F50">
+        <v>-0.006998131895812975</v>
+      </c>
+      <c r="G50">
+        <v>-0.03662568070543841</v>
+      </c>
+      <c r="H50">
+        <v>0.02773032203309818</v>
+      </c>
+      <c r="I50">
+        <v>-0.1137253467911344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004724849068182591</v>
+        <v>0.004605562681843288</v>
       </c>
       <c r="C51">
-        <v>-0.00742531775861273</v>
+        <v>-0.01767061484854731</v>
       </c>
       <c r="D51">
-        <v>-0.06547727690502891</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.06995226941336405</v>
+      </c>
+      <c r="E51">
+        <v>0.0372010817408724</v>
+      </c>
+      <c r="F51">
+        <v>-0.03539499330215006</v>
+      </c>
+      <c r="G51">
+        <v>-0.04771200276579976</v>
+      </c>
+      <c r="H51">
+        <v>0.03120244534446244</v>
+      </c>
+      <c r="I51">
+        <v>-0.006177785566686663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1063538887531874</v>
+        <v>0.06386801542199179</v>
       </c>
       <c r="C53">
-        <v>-0.1204827371444402</v>
+        <v>-0.1505322907928153</v>
       </c>
       <c r="D53">
-        <v>-0.01972011620458355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00897701251277023</v>
+      </c>
+      <c r="E53">
+        <v>-0.03735410467510793</v>
+      </c>
+      <c r="F53">
+        <v>-0.05383533023808988</v>
+      </c>
+      <c r="G53">
+        <v>-0.004127524919586513</v>
+      </c>
+      <c r="H53">
+        <v>0.005758470674582012</v>
+      </c>
+      <c r="I53">
+        <v>-0.08801503820385598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01741761618020741</v>
+        <v>0.0112429438408505</v>
       </c>
       <c r="C54">
-        <v>-0.02415623601298384</v>
+        <v>-0.03903840390189092</v>
       </c>
       <c r="D54">
-        <v>-0.1116653167177889</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0873667093277888</v>
+      </c>
+      <c r="E54">
+        <v>0.006977676064083818</v>
+      </c>
+      <c r="F54">
+        <v>0.002124577696677648</v>
+      </c>
+      <c r="G54">
+        <v>-0.05835249692652682</v>
+      </c>
+      <c r="H54">
+        <v>0.06742770829270088</v>
+      </c>
+      <c r="I54">
+        <v>-0.05836899983681676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09521564954138696</v>
+        <v>0.0508555962988318</v>
       </c>
       <c r="C55">
-        <v>-0.1005452422133142</v>
+        <v>-0.1258718513685899</v>
       </c>
       <c r="D55">
-        <v>-0.00798661122073765</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01786622760907882</v>
+      </c>
+      <c r="E55">
+        <v>-0.00110876689541538</v>
+      </c>
+      <c r="F55">
+        <v>-0.02138222770552814</v>
+      </c>
+      <c r="G55">
+        <v>-0.02411837649481235</v>
+      </c>
+      <c r="H55">
+        <v>-0.004199954762108044</v>
+      </c>
+      <c r="I55">
+        <v>-0.07922273667724175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1359350191659324</v>
+        <v>0.07380063471018108</v>
       </c>
       <c r="C56">
-        <v>-0.1317876716036986</v>
+        <v>-0.1789767611642523</v>
       </c>
       <c r="D56">
-        <v>-0.00199051549984467</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02215257607960481</v>
+      </c>
+      <c r="E56">
+        <v>-0.03467454292419504</v>
+      </c>
+      <c r="F56">
+        <v>-0.01774021669434987</v>
+      </c>
+      <c r="G56">
+        <v>-0.05007844859647034</v>
+      </c>
+      <c r="H56">
+        <v>-0.02190171951645886</v>
+      </c>
+      <c r="I56">
+        <v>-0.09792059816432556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01534435846842896</v>
+        <v>-7.70143817942202e-05</v>
       </c>
       <c r="C58">
-        <v>-0.02197627941352649</v>
+        <v>-0.04515301246961056</v>
       </c>
       <c r="D58">
-        <v>-0.2085226348975361</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2796341632982989</v>
+      </c>
+      <c r="E58">
+        <v>-0.03487658089984248</v>
+      </c>
+      <c r="F58">
+        <v>-0.08906061854543017</v>
+      </c>
+      <c r="G58">
+        <v>-0.09355102584800311</v>
+      </c>
+      <c r="H58">
+        <v>-0.157282600369798</v>
+      </c>
+      <c r="I58">
+        <v>0.07557098864465993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1714087939479464</v>
+        <v>0.2414189951057613</v>
       </c>
       <c r="C59">
-        <v>0.1585911189245791</v>
+        <v>0.08974095740554018</v>
       </c>
       <c r="D59">
-        <v>-0.05149460735128492</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06075386864616979</v>
+      </c>
+      <c r="E59">
+        <v>-0.02772654653447025</v>
+      </c>
+      <c r="F59">
+        <v>-0.01150169048853963</v>
+      </c>
+      <c r="G59">
+        <v>0.01447507326331732</v>
+      </c>
+      <c r="H59">
+        <v>-0.02299597361387217</v>
+      </c>
+      <c r="I59">
+        <v>-0.03090296357713777</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1985865210441466</v>
+        <v>0.1591769801053089</v>
       </c>
       <c r="C60">
-        <v>-0.1051044109268181</v>
+        <v>-0.1696652366644032</v>
       </c>
       <c r="D60">
-        <v>-0.1600831840620165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.08590840040637655</v>
+      </c>
+      <c r="E60">
+        <v>0.2438728952759761</v>
+      </c>
+      <c r="F60">
+        <v>0.1604441955345575</v>
+      </c>
+      <c r="G60">
+        <v>0.269990200477595</v>
+      </c>
+      <c r="H60">
+        <v>-0.1029769821463721</v>
+      </c>
+      <c r="I60">
+        <v>0.03441995641585263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03295258278025764</v>
+        <v>0.01707414266003732</v>
       </c>
       <c r="C61">
-        <v>-0.0565243211211558</v>
+        <v>-0.07199116313803477</v>
       </c>
       <c r="D61">
-        <v>-0.1114385183681847</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.08794652197908313</v>
+      </c>
+      <c r="E61">
+        <v>0.03614829505535649</v>
+      </c>
+      <c r="F61">
+        <v>0.01500245976123129</v>
+      </c>
+      <c r="G61">
+        <v>-0.005675165484855894</v>
+      </c>
+      <c r="H61">
+        <v>0.095838084610694</v>
+      </c>
+      <c r="I61">
+        <v>0.0008865489378451973</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.009929146218731097</v>
+        <v>0.004467203220058526</v>
       </c>
       <c r="C63">
-        <v>-0.02468639793912703</v>
+        <v>-0.03480372533529363</v>
       </c>
       <c r="D63">
-        <v>-0.0945030450387284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0730690220050205</v>
+      </c>
+      <c r="E63">
+        <v>0.02251147244659417</v>
+      </c>
+      <c r="F63">
+        <v>-0.02197188021600266</v>
+      </c>
+      <c r="G63">
+        <v>-0.03456151125413549</v>
+      </c>
+      <c r="H63">
+        <v>0.05045904087570491</v>
+      </c>
+      <c r="I63">
+        <v>-0.01165553531895164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06145865380045601</v>
+        <v>0.02743606571025451</v>
       </c>
       <c r="C64">
-        <v>-0.0835343318063629</v>
+        <v>-0.104041426761746</v>
       </c>
       <c r="D64">
-        <v>-0.04546171133548962</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03653204246346869</v>
+      </c>
+      <c r="E64">
+        <v>0.02822246222576614</v>
+      </c>
+      <c r="F64">
+        <v>-0.02832437186381137</v>
+      </c>
+      <c r="G64">
+        <v>0.005537272193648223</v>
+      </c>
+      <c r="H64">
+        <v>0.1121458128991197</v>
+      </c>
+      <c r="I64">
+        <v>0.02128038153119692</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02895015420028865</v>
+        <v>0.02491896275154154</v>
       </c>
       <c r="C65">
-        <v>-0.01828794953126318</v>
+        <v>-0.03719000008761909</v>
       </c>
       <c r="D65">
-        <v>-0.1201919879506788</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.110575515240046</v>
+      </c>
+      <c r="E65">
+        <v>0.03716251750608197</v>
+      </c>
+      <c r="F65">
+        <v>-0.004516091301734291</v>
+      </c>
+      <c r="G65">
+        <v>-0.005664767390340093</v>
+      </c>
+      <c r="H65">
+        <v>0.01895750637990472</v>
+      </c>
+      <c r="I65">
+        <v>-0.01400541455556726</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02525047198970213</v>
+        <v>0.008487878605114121</v>
       </c>
       <c r="C66">
-        <v>-0.06443462093487168</v>
+        <v>-0.08845853377224872</v>
       </c>
       <c r="D66">
-        <v>-0.1218787276615233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1319181578781563</v>
+      </c>
+      <c r="E66">
+        <v>0.03439351022759484</v>
+      </c>
+      <c r="F66">
+        <v>0.01507389054274823</v>
+      </c>
+      <c r="G66">
+        <v>-0.02137333259693278</v>
+      </c>
+      <c r="H66">
+        <v>0.05286914560558433</v>
+      </c>
+      <c r="I66">
+        <v>0.06053911924313791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0281226057317819</v>
+        <v>0.02689594962254622</v>
       </c>
       <c r="C67">
-        <v>-0.0213246517677327</v>
+        <v>-0.02939987953269228</v>
       </c>
       <c r="D67">
-        <v>-0.05133547671688921</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03837639370938372</v>
+      </c>
+      <c r="E67">
+        <v>0.00365956015979981</v>
+      </c>
+      <c r="F67">
+        <v>0.0271416261228098</v>
+      </c>
+      <c r="G67">
+        <v>-0.03631243188586057</v>
+      </c>
+      <c r="H67">
+        <v>0.05396135423667783</v>
+      </c>
+      <c r="I67">
+        <v>-0.03980780573849307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2082932258160119</v>
+        <v>0.2679119268094429</v>
       </c>
       <c r="C68">
-        <v>0.1708876289167664</v>
+        <v>0.08849492201526939</v>
       </c>
       <c r="D68">
-        <v>-0.03655251493741678</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02854199792875933</v>
+      </c>
+      <c r="E68">
+        <v>0.005059764866903686</v>
+      </c>
+      <c r="F68">
+        <v>-0.02384979159692436</v>
+      </c>
+      <c r="G68">
+        <v>-0.03758389291865772</v>
+      </c>
+      <c r="H68">
+        <v>-0.06014840478546436</v>
+      </c>
+      <c r="I68">
+        <v>-0.1156499379421658</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.0620956121074618</v>
+        <v>0.026940400040609</v>
       </c>
       <c r="C69">
-        <v>-0.1153239510178719</v>
+        <v>-0.1206863570118111</v>
       </c>
       <c r="D69">
-        <v>-0.08721575775327468</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04540406849903825</v>
+      </c>
+      <c r="E69">
+        <v>0.003776388745687926</v>
+      </c>
+      <c r="F69">
+        <v>0.01202271597323903</v>
+      </c>
+      <c r="G69">
+        <v>0.01489988648090596</v>
+      </c>
+      <c r="H69">
+        <v>0.04783252452860599</v>
+      </c>
+      <c r="I69">
+        <v>-0.08149552020094049</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2109332109505491</v>
+        <v>0.2673784292384692</v>
       </c>
       <c r="C71">
-        <v>0.1865989702878335</v>
+        <v>0.1011189137290784</v>
       </c>
       <c r="D71">
-        <v>-0.03348180317796933</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02119049646408777</v>
+      </c>
+      <c r="E71">
+        <v>-0.009210733268998052</v>
+      </c>
+      <c r="F71">
+        <v>-0.01627905476883689</v>
+      </c>
+      <c r="G71">
+        <v>-0.03987440184859052</v>
+      </c>
+      <c r="H71">
+        <v>-0.01063500773277105</v>
+      </c>
+      <c r="I71">
+        <v>-0.1727570985890772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1060163031104852</v>
+        <v>0.06402761842323967</v>
       </c>
       <c r="C72">
-        <v>-0.0735115263570542</v>
+        <v>-0.1196753331565135</v>
       </c>
       <c r="D72">
-        <v>-0.0963569014468685</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06898484205793783</v>
+      </c>
+      <c r="E72">
+        <v>0.08985353148766656</v>
+      </c>
+      <c r="F72">
+        <v>0.009527060271132237</v>
+      </c>
+      <c r="G72">
+        <v>-0.006659224602434333</v>
+      </c>
+      <c r="H72">
+        <v>0.05293197258183868</v>
+      </c>
+      <c r="I72">
+        <v>0.04607726328100015</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1789939637705822</v>
+        <v>0.1448849247667318</v>
       </c>
       <c r="C73">
-        <v>-0.06160309894838668</v>
+        <v>-0.1346669713988928</v>
       </c>
       <c r="D73">
-        <v>-0.2096604936850517</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09299716970715703</v>
+      </c>
+      <c r="E73">
+        <v>0.405058851964307</v>
+      </c>
+      <c r="F73">
+        <v>0.2431047123143072</v>
+      </c>
+      <c r="G73">
+        <v>0.4540767101381296</v>
+      </c>
+      <c r="H73">
+        <v>-0.00653518215423853</v>
+      </c>
+      <c r="I73">
+        <v>0.09813560967649033</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1061891789829119</v>
+        <v>0.05757242544268053</v>
       </c>
       <c r="C74">
-        <v>-0.1083227026082858</v>
+        <v>-0.1378278030286895</v>
       </c>
       <c r="D74">
-        <v>0.01924824889268859</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03609968805654867</v>
+      </c>
+      <c r="E74">
+        <v>-0.01789301625679937</v>
+      </c>
+      <c r="F74">
+        <v>-0.05147419999703881</v>
+      </c>
+      <c r="G74">
+        <v>-0.003130271943807686</v>
+      </c>
+      <c r="H74">
+        <v>-0.01071843809953084</v>
+      </c>
+      <c r="I74">
+        <v>-0.1027592105653803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2429727031225341</v>
+        <v>0.1391135670648995</v>
       </c>
       <c r="C75">
-        <v>-0.1938412490056232</v>
+        <v>-0.2643496674508037</v>
       </c>
       <c r="D75">
-        <v>0.1060375778242242</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1347256663528436</v>
+      </c>
+      <c r="E75">
+        <v>-0.08529569961531835</v>
+      </c>
+      <c r="F75">
+        <v>0.03465546828887781</v>
+      </c>
+      <c r="G75">
+        <v>-0.08714975785474746</v>
+      </c>
+      <c r="H75">
+        <v>-0.02634779220262795</v>
+      </c>
+      <c r="I75">
+        <v>-0.0909132094321579</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1439458851728376</v>
+        <v>0.0756977728651277</v>
       </c>
       <c r="C76">
-        <v>-0.1345717257842957</v>
+        <v>-0.1784763936471442</v>
       </c>
       <c r="D76">
-        <v>-0.01232255858075722</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02629490791280713</v>
+      </c>
+      <c r="E76">
+        <v>-0.03126091641500045</v>
+      </c>
+      <c r="F76">
+        <v>-0.01275265500830825</v>
+      </c>
+      <c r="G76">
+        <v>-0.06311937149315242</v>
+      </c>
+      <c r="H76">
+        <v>0.0141759507800248</v>
+      </c>
+      <c r="I76">
+        <v>-0.1080570014362423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02275126998205815</v>
+        <v>0.0368199470785448</v>
       </c>
       <c r="C77">
-        <v>-0.08152406414342263</v>
+        <v>-0.09305977289371847</v>
       </c>
       <c r="D77">
-        <v>-0.06374812660681313</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2523688058874646</v>
+      </c>
+      <c r="E77">
+        <v>-0.7406305835759617</v>
+      </c>
+      <c r="F77">
+        <v>0.3643451512595031</v>
+      </c>
+      <c r="G77">
+        <v>0.3709267688989148</v>
+      </c>
+      <c r="H77">
+        <v>-0.1577130970471463</v>
+      </c>
+      <c r="I77">
+        <v>-0.01135965548190668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02379645495199784</v>
+        <v>0.01617982288649062</v>
       </c>
       <c r="C78">
-        <v>-0.07275707052776995</v>
+        <v>-0.08494635445375816</v>
       </c>
       <c r="D78">
-        <v>-0.1605758755033598</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1406380727667212</v>
+      </c>
+      <c r="E78">
+        <v>0.04243020488885529</v>
+      </c>
+      <c r="F78">
+        <v>-0.0431352031562629</v>
+      </c>
+      <c r="G78">
+        <v>-0.03088470672281929</v>
+      </c>
+      <c r="H78">
+        <v>0.015596044814932</v>
+      </c>
+      <c r="I78">
+        <v>-0.01001748501447389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.08079093469589213</v>
+        <v>0.04008793807688373</v>
       </c>
       <c r="C79">
-        <v>-0.1493013580373139</v>
+        <v>-0.173289032620842</v>
       </c>
       <c r="D79">
-        <v>0.09968288863281645</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0546727722356789</v>
+      </c>
+      <c r="E79">
+        <v>-0.1321474227319148</v>
+      </c>
+      <c r="F79">
+        <v>-0.7980464479193324</v>
+      </c>
+      <c r="G79">
+        <v>0.450268858540429</v>
+      </c>
+      <c r="H79">
+        <v>-0.08307985752652507</v>
+      </c>
+      <c r="I79">
+        <v>0.1602052429153317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.008739719402853249</v>
+        <v>0.001742420860723971</v>
       </c>
       <c r="C80">
-        <v>-0.04741171907380081</v>
+        <v>-0.04941463491927689</v>
       </c>
       <c r="D80">
-        <v>-0.04829077893640309</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04774356732502475</v>
+      </c>
+      <c r="E80">
+        <v>0.01999040184194996</v>
+      </c>
+      <c r="F80">
+        <v>-0.008390459393795331</v>
+      </c>
+      <c r="G80">
+        <v>-0.04665421972780646</v>
+      </c>
+      <c r="H80">
+        <v>6.448668610177234e-06</v>
+      </c>
+      <c r="I80">
+        <v>-0.05395756728676415</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1259510160834161</v>
+        <v>0.06153100109285503</v>
       </c>
       <c r="C81">
-        <v>-0.1295121587789822</v>
+        <v>-0.1629409649870513</v>
       </c>
       <c r="D81">
-        <v>0.06330838035145329</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07631295190404094</v>
+      </c>
+      <c r="E81">
+        <v>-0.07278126397296991</v>
+      </c>
+      <c r="F81">
+        <v>-0.04449050245479137</v>
+      </c>
+      <c r="G81">
+        <v>-0.05907283018993372</v>
+      </c>
+      <c r="H81">
+        <v>0.04336997202461085</v>
+      </c>
+      <c r="I81">
+        <v>-0.1362359273353704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2520892583172124</v>
+        <v>0.1184478979886109</v>
       </c>
       <c r="C82">
-        <v>-0.2913757637828992</v>
+        <v>-0.3239911325966807</v>
       </c>
       <c r="D82">
-        <v>0.2163452083281443</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2243098767072181</v>
+      </c>
+      <c r="E82">
+        <v>-0.04150311726715377</v>
+      </c>
+      <c r="F82">
+        <v>0.1133300954509168</v>
+      </c>
+      <c r="G82">
+        <v>-0.08580986389500843</v>
+      </c>
+      <c r="H82">
+        <v>0.07114573625407333</v>
+      </c>
+      <c r="I82">
+        <v>-0.07933647807042923</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.0002804331777210812</v>
+        <v>-0.004720722625955157</v>
       </c>
       <c r="C83">
-        <v>-0.0559624569222285</v>
+        <v>-0.03970309888494639</v>
       </c>
       <c r="D83">
-        <v>-0.02974744951513008</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04492992401785992</v>
+      </c>
+      <c r="E83">
+        <v>-0.09213493273501293</v>
+      </c>
+      <c r="F83">
+        <v>-0.01141118103017415</v>
+      </c>
+      <c r="G83">
+        <v>-0.04369853280375638</v>
+      </c>
+      <c r="H83">
+        <v>0.03905649699590675</v>
+      </c>
+      <c r="I83">
+        <v>-0.04902145565836546</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>9.485812080419685e-05</v>
+        <v>0.0004820780564683141</v>
       </c>
       <c r="C84">
-        <v>-0.0005122039055690386</v>
+        <v>-0.01368643827742204</v>
       </c>
       <c r="D84">
-        <v>-0.0002387778417422494</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03646516882573692</v>
+      </c>
+      <c r="E84">
+        <v>-0.007635148490491228</v>
+      </c>
+      <c r="F84">
+        <v>-0.01641031104937345</v>
+      </c>
+      <c r="G84">
+        <v>-0.04086294950301318</v>
+      </c>
+      <c r="H84">
+        <v>-0.01826277300951465</v>
+      </c>
+      <c r="I84">
+        <v>0.02837374311324772</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1496178711777615</v>
+        <v>0.07658947045274547</v>
       </c>
       <c r="C85">
-        <v>-0.1423893790765184</v>
+        <v>-0.1893189187522918</v>
       </c>
       <c r="D85">
-        <v>0.04645181349585484</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08771439837199388</v>
+      </c>
+      <c r="E85">
+        <v>-0.004166088649381375</v>
+      </c>
+      <c r="F85">
+        <v>-0.07632364416753981</v>
+      </c>
+      <c r="G85">
+        <v>-0.03197340832490281</v>
+      </c>
+      <c r="H85">
+        <v>-0.01018157330140559</v>
+      </c>
+      <c r="I85">
+        <v>-0.1281024998276339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.0170009826339156</v>
+        <v>0.01251775043184619</v>
       </c>
       <c r="C86">
-        <v>-0.02021961142193493</v>
+        <v>-0.03039992407651037</v>
       </c>
       <c r="D86">
-        <v>-0.08550384487493877</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1008369309550967</v>
+      </c>
+      <c r="E86">
+        <v>-0.04402123873940848</v>
+      </c>
+      <c r="F86">
+        <v>0.02604161466795082</v>
+      </c>
+      <c r="G86">
+        <v>0.02906687912186876</v>
+      </c>
+      <c r="H86">
+        <v>0.01191768949617807</v>
+      </c>
+      <c r="I86">
+        <v>-0.07078483002426801</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.018193039934952</v>
+        <v>0.01669037842382636</v>
       </c>
       <c r="C87">
-        <v>-0.02227811302353984</v>
+        <v>-0.04728930339941668</v>
       </c>
       <c r="D87">
-        <v>-0.1214688600138328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1454734442732966</v>
+      </c>
+      <c r="E87">
+        <v>-0.01024148875811201</v>
+      </c>
+      <c r="F87">
+        <v>-0.05048769396081726</v>
+      </c>
+      <c r="G87">
+        <v>-0.08378043284006671</v>
+      </c>
+      <c r="H87">
+        <v>0.008996225984452481</v>
+      </c>
+      <c r="I87">
+        <v>0.08414532601934113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05969239347111752</v>
+        <v>0.03422619782084504</v>
       </c>
       <c r="C88">
-        <v>-0.05055072564666595</v>
+        <v>-0.06972833996654706</v>
       </c>
       <c r="D88">
-        <v>-0.04974844063198725</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01481273221602992</v>
+      </c>
+      <c r="E88">
+        <v>0.009972431498663335</v>
+      </c>
+      <c r="F88">
+        <v>-0.02907204414667108</v>
+      </c>
+      <c r="G88">
+        <v>-0.02075503345714275</v>
+      </c>
+      <c r="H88">
+        <v>0.03760705975308053</v>
+      </c>
+      <c r="I88">
+        <v>-0.0667819628125858</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3125985512775564</v>
+        <v>0.4047346582285727</v>
       </c>
       <c r="C89">
-        <v>0.3433939896497323</v>
+        <v>0.196413506580819</v>
       </c>
       <c r="D89">
-        <v>-0.04059855436997767</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.03010289574902085</v>
+      </c>
+      <c r="E89">
+        <v>-0.02509657449438251</v>
+      </c>
+      <c r="F89">
+        <v>-0.06779138240016097</v>
+      </c>
+      <c r="G89">
+        <v>-0.07857037995440042</v>
+      </c>
+      <c r="H89">
+        <v>0.1721029251822638</v>
+      </c>
+      <c r="I89">
+        <v>0.4319470094774924</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2467145462549942</v>
+        <v>0.3088080388715886</v>
       </c>
       <c r="C90">
-        <v>0.2472316380891454</v>
+        <v>0.1308962902655413</v>
       </c>
       <c r="D90">
-        <v>-0.03152523738577521</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02945497066726132</v>
+      </c>
+      <c r="E90">
+        <v>-0.01565104409888298</v>
+      </c>
+      <c r="F90">
+        <v>0.01318270526592783</v>
+      </c>
+      <c r="G90">
+        <v>-0.05574726778652628</v>
+      </c>
+      <c r="H90">
+        <v>-0.04303253033659996</v>
+      </c>
+      <c r="I90">
+        <v>-0.09264187117707763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1606644124285314</v>
+        <v>0.08424679482046381</v>
       </c>
       <c r="C91">
-        <v>-0.1781502965894726</v>
+        <v>-0.2069381092193054</v>
       </c>
       <c r="D91">
-        <v>0.1020446747837875</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1084661274274227</v>
+      </c>
+      <c r="E91">
+        <v>-0.07336936012818344</v>
+      </c>
+      <c r="F91">
+        <v>-0.07239175639679053</v>
+      </c>
+      <c r="G91">
+        <v>-0.007179682741750607</v>
+      </c>
+      <c r="H91">
+        <v>-0.004044260047813662</v>
+      </c>
+      <c r="I91">
+        <v>-0.1237523660781518</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2229354049862939</v>
+        <v>0.3195078119617423</v>
       </c>
       <c r="C92">
-        <v>0.2581169451921654</v>
+        <v>0.1643415129732932</v>
       </c>
       <c r="D92">
-        <v>0.05037918537275638</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.005813510400752095</v>
+      </c>
+      <c r="E92">
+        <v>-0.08487697481799013</v>
+      </c>
+      <c r="F92">
+        <v>-0.02443515865168611</v>
+      </c>
+      <c r="G92">
+        <v>-0.04864055969043134</v>
+      </c>
+      <c r="H92">
+        <v>0.00607443174962705</v>
+      </c>
+      <c r="I92">
+        <v>0.100348805043397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2727268443765485</v>
+        <v>0.326391249005505</v>
       </c>
       <c r="C93">
-        <v>0.251718699888617</v>
+        <v>0.132697077108611</v>
       </c>
       <c r="D93">
-        <v>-0.0180097123761186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01249320047457989</v>
+      </c>
+      <c r="E93">
+        <v>0.02773850616233335</v>
+      </c>
+      <c r="F93">
+        <v>-0.01275256464783061</v>
+      </c>
+      <c r="G93">
+        <v>0.01137594054239767</v>
+      </c>
+      <c r="H93">
+        <v>-0.01516555196014067</v>
+      </c>
+      <c r="I93">
+        <v>-0.1345880277490059</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3090307332425661</v>
+        <v>0.1666603765404928</v>
       </c>
       <c r="C94">
-        <v>-0.2572030049797699</v>
+        <v>-0.3491734051016562</v>
       </c>
       <c r="D94">
-        <v>0.3598544152815605</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3577626126308385</v>
+      </c>
+      <c r="E94">
+        <v>-0.04498946667385295</v>
+      </c>
+      <c r="F94">
+        <v>0.1091435043952151</v>
+      </c>
+      <c r="G94">
+        <v>-0.280071444329052</v>
+      </c>
+      <c r="H94">
+        <v>-0.1564326540372921</v>
+      </c>
+      <c r="I94">
+        <v>0.4409422957327856</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02573324110097066</v>
+        <v>0.02466538018028661</v>
       </c>
       <c r="C95">
-        <v>-0.03528862645535633</v>
+        <v>-0.0600033816807105</v>
       </c>
       <c r="D95">
-        <v>-0.08277249833732084</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1204344810632553</v>
+      </c>
+      <c r="E95">
+        <v>-0.2049820577599363</v>
+      </c>
+      <c r="F95">
+        <v>0.07669231374120433</v>
+      </c>
+      <c r="G95">
+        <v>-0.01120304851375321</v>
+      </c>
+      <c r="H95">
+        <v>0.4390689921692408</v>
+      </c>
+      <c r="I95">
+        <v>0.4278821031998794</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0004328981207072912</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001812994937626494</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>4.430992640673943e-05</v>
+      </c>
+      <c r="E97">
+        <v>0.0007737022106709319</v>
+      </c>
+      <c r="F97">
+        <v>0.001434430556831849</v>
+      </c>
+      <c r="G97">
+        <v>0.000450490626891336</v>
+      </c>
+      <c r="H97">
+        <v>-0.001083336499341018</v>
+      </c>
+      <c r="I97">
+        <v>0.0004213430693294483</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1499252899167423</v>
+        <v>0.1216724157860063</v>
       </c>
       <c r="C98">
-        <v>-0.07210413687414241</v>
+        <v>-0.1345735567790141</v>
       </c>
       <c r="D98">
-        <v>-0.1162713773383037</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06296603722858866</v>
+      </c>
+      <c r="E98">
+        <v>0.2776059014085275</v>
+      </c>
+      <c r="F98">
+        <v>0.1541897652762547</v>
+      </c>
+      <c r="G98">
+        <v>0.2751776363176085</v>
+      </c>
+      <c r="H98">
+        <v>-0.06055129586070036</v>
+      </c>
+      <c r="I98">
+        <v>0.06457743225006618</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001453176608806664</v>
+        <v>-0.0005609108967591414</v>
       </c>
       <c r="C101">
-        <v>-0.0216859531287371</v>
+        <v>-0.02912778180300334</v>
       </c>
       <c r="D101">
-        <v>-0.1027477367593059</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1009491537758632</v>
+      </c>
+      <c r="E101">
+        <v>0.03260075855477016</v>
+      </c>
+      <c r="F101">
+        <v>-0.03195710783411745</v>
+      </c>
+      <c r="G101">
+        <v>-0.05103434279102043</v>
+      </c>
+      <c r="H101">
+        <v>0.1012702985143025</v>
+      </c>
+      <c r="I101">
+        <v>-0.02058020116289354</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1132111622770254</v>
+        <v>0.04763317469217882</v>
       </c>
       <c r="C102">
-        <v>-0.1476403518541448</v>
+        <v>-0.1531228436508883</v>
       </c>
       <c r="D102">
-        <v>0.07513199476829245</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.090973783592889</v>
+      </c>
+      <c r="E102">
+        <v>-0.02886857294121978</v>
+      </c>
+      <c r="F102">
+        <v>0.06186176354529582</v>
+      </c>
+      <c r="G102">
+        <v>-0.01002865217926581</v>
+      </c>
+      <c r="H102">
+        <v>0.05320918002578376</v>
+      </c>
+      <c r="I102">
+        <v>-0.03168780780739944</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
